--- a/data/trans_orig/FREC_ALCOHOL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/FREC_ALCOHOL-Clase-trans_orig.xlsx
@@ -12409,12 +12409,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -12424,12 +12424,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">

--- a/data/trans_orig/FREC_ALCOHOL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/FREC_ALCOHOL-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de bebidas alcohólicas en País Vasco</t>
+          <t>Consumo de bebidas alcohólicas en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4770,7 +4770,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de bebidas alcohólicas en Andalucia</t>
+          <t>Consumo de bebidas alcohólicas en Andalucia (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8995,7 +8995,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de bebidas alcohólicas en C.Valenciana</t>
+          <t>Consumo de bebidas alcohólicas en C.Valenciana (tasa de respuesta: 99,48%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/FREC_ALCOHOL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/FREC_ALCOHOL-Clase-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4545</t>
+          <t>13587</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>8878</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6861</t>
+          <t>21373</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9707</t>
+          <t>21058</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7501</t>
+          <t>15697</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12489</t>
+          <t>27237</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>14252</t>
+          <t>34645</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>11306</t>
+          <t>26723</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>17804</t>
+          <t>44418</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>12,18%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26701</t>
+          <t>58806</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23313</t>
+          <t>49994</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30650</t>
+          <t>68578</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>33,63%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>39,54%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34139</t>
+          <t>84223</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30339</t>
+          <t>73631</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38146</t>
+          <t>93914</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,98%</t>
+          <t>44,39%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>38,8%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>48,03%</t>
+          <t>49,49%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>60840</t>
+          <t>143029</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>55525</t>
+          <t>129687</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>66274</t>
+          <t>156921</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>39,23%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>35,57%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>42,23%</t>
+          <t>43,04%</t>
         </is>
       </c>
     </row>
@@ -961,32 +961,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34074</t>
+          <t>80045</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29807</t>
+          <t>71542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37699</t>
+          <t>90677</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,96%</t>
+          <t>45,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,45%</t>
+          <t>40,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>48,63%</t>
+          <t>51,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -996,32 +996,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29855</t>
+          <t>72434</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>25978</t>
+          <t>62357</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>33366</t>
+          <t>81772</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>38,17%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>32,86%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>42,01%</t>
+          <t>43,1%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1031,32 +1031,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>63929</t>
+          <t>152480</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>58732</t>
+          <t>138905</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>69544</t>
+          <t>166464</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>40,73%</t>
+          <t>41,82%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>37,42%</t>
+          <t>38,1%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>44,31%</t>
+          <t>45,66%</t>
         </is>
       </c>
     </row>
@@ -1074,32 +1074,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12197</t>
+          <t>22416</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9539</t>
+          <t>16876</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15567</t>
+          <t>28781</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1109,32 +1109,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>12034</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3876</t>
+          <t>8092</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8024</t>
+          <t>17449</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1144,32 +1144,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>17918</t>
+          <t>34451</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>14372</t>
+          <t>27640</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>21359</t>
+          <t>42657</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>11,7%</t>
         </is>
       </c>
     </row>
@@ -1187,17 +1187,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>77517</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>77517</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>77517</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1222,17 +1222,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>79422</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>79422</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>79422</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1257,17 +1257,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>156939</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>156939</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>156939</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1304,32 +1304,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2546</t>
+          <t>7305</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4440</t>
+          <t>11776</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8512</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6505</t>
+          <t>15378</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11320</t>
+          <t>26229</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1374,32 +1374,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>11058</t>
+          <t>27105</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>8586</t>
+          <t>21025</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>14196</t>
+          <t>34600</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>15,37%</t>
         </is>
       </c>
     </row>
@@ -1417,32 +1417,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19622</t>
+          <t>40163</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16712</t>
+          <t>33478</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22951</t>
+          <t>48412</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,98%</t>
+          <t>32,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>50,79%</t>
+          <t>46,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1452,32 +1452,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28720</t>
+          <t>50827</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>25352</t>
+          <t>43745</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>57432</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>45,84%</t>
+          <t>41,91%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>36,07%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>51,5%</t>
+          <t>47,35%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1487,32 +1487,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>48342</t>
+          <t>90991</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>43753</t>
+          <t>80222</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>52974</t>
+          <t>100472</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>40,41%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>40,57%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>49,12%</t>
+          <t>44,62%</t>
         </is>
       </c>
     </row>
@@ -1530,32 +1530,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15862</t>
+          <t>41132</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13054</t>
+          <t>33274</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19024</t>
+          <t>49624</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,1%</t>
+          <t>39,59%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,1%</t>
+          <t>47,76%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1565,32 +1565,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23042</t>
+          <t>46054</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19662</t>
+          <t>39258</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26735</t>
+          <t>53664</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,78%</t>
+          <t>37,97%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>32,37%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>42,67%</t>
+          <t>44,25%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1600,32 +1600,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>38904</t>
+          <t>87186</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>34433</t>
+          <t>76530</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>43735</t>
+          <t>98223</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>31,93%</t>
+          <t>33,99%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>40,55%</t>
+          <t>43,62%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +1643,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7159</t>
+          <t>15297</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5195</t>
+          <t>10908</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9701</t>
+          <t>21529</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1678,17 +1678,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1439</t>
+          <t>2640</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>3824</t>
+          <t>7886</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1713,17 +1713,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>9538</t>
+          <t>19902</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>7011</t>
+          <t>14642</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>12643</t>
+          <t>26148</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>11,61%</t>
         </is>
       </c>
     </row>
@@ -1756,17 +1756,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45189</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45189</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45189</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>62653</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>62653</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>62653</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1826,17 +1826,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>107842</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>107842</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>107842</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1873,32 +1873,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>10801</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5052</t>
+          <t>7312</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9825</t>
+          <t>16080</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1908,32 +1908,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10667</t>
+          <t>15059</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>8258</t>
+          <t>11679</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>13056</t>
+          <t>19390</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>27,7%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>38,72%</t>
+          <t>35,66%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1943,32 +1943,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>17632</t>
+          <t>25860</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>14478</t>
+          <t>20697</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>21564</t>
+          <t>32760</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>15,9%</t>
         </is>
       </c>
     </row>
@@ -1986,32 +1986,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>33096</t>
+          <t>60881</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29255</t>
+          <t>53271</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>37134</t>
+          <t>69674</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>40,1%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>35,11%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>45,93%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2021,32 +2021,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13594</t>
+          <t>24595</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11095</t>
+          <t>19928</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16143</t>
+          <t>29103</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>40,32%</t>
+          <t>45,23%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>32,91%</t>
+          <t>36,65%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>47,88%</t>
+          <t>53,52%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2056,32 +2056,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>46690</t>
+          <t>85476</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>41558</t>
+          <t>75888</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>51399</t>
+          <t>95499</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>36,82%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>44,21%</t>
+          <t>46,34%</t>
         </is>
       </c>
     </row>
@@ -2099,32 +2099,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25970</t>
+          <t>54993</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22435</t>
+          <t>47833</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29749</t>
+          <t>62890</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>36,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>31,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>41,45%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2134,32 +2134,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7575</t>
+          <t>11899</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>8362</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10091</t>
+          <t>16239</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>29,93%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2169,32 +2169,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>33546</t>
+          <t>66892</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>29250</t>
+          <t>57968</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>37534</t>
+          <t>76362</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>32,46%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>37,05%</t>
         </is>
       </c>
     </row>
@@ -2212,32 +2212,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16500</t>
+          <t>25034</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13561</t>
+          <t>19585</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20046</t>
+          <t>31028</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2247,32 +2247,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1880</t>
+          <t>2821</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>866</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3374</t>
+          <t>5464</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2282,32 +2282,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>18380</t>
+          <t>27855</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>15235</t>
+          <t>22198</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>22243</t>
+          <t>34606</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>16,79%</t>
         </is>
       </c>
     </row>
@@ -2325,17 +2325,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>82532</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>82532</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>82532</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2360,17 +2360,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2395,17 +2395,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2442,32 +2442,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6935</t>
+          <t>17681</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>12979</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9263</t>
+          <t>24845</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2477,32 +2477,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27054</t>
+          <t>49996</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23173</t>
+          <t>42625</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>31184</t>
+          <t>59118</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>31,6%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2512,32 +2512,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>33989</t>
+          <t>67677</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>29353</t>
+          <t>57853</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>38291</t>
+          <t>77414</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>21,17%</t>
         </is>
       </c>
     </row>
@@ -2555,32 +2555,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>33802</t>
+          <t>68596</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>29934</t>
+          <t>59280</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>38058</t>
+          <t>78401</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>38,4%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>33,18%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>44,13%</t>
+          <t>43,88%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2590,32 +2590,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>37961</t>
+          <t>82403</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>33727</t>
+          <t>72418</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>42295</t>
+          <t>92682</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>40,24%</t>
+          <t>44,04%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>38,71%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>49,54%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2625,32 +2625,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>71763</t>
+          <t>150999</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>65806</t>
+          <t>137353</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>77301</t>
+          <t>165029</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>39,74%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>37,55%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>42,8%</t>
+          <t>45,12%</t>
         </is>
       </c>
     </row>
@@ -2668,32 +2668,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>29341</t>
+          <t>63874</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>25519</t>
+          <t>53708</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>33358</t>
+          <t>73047</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>35,75%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>38,68%</t>
+          <t>40,89%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2703,32 +2703,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22612</t>
+          <t>45001</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19669</t>
+          <t>37360</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>26690</t>
+          <t>53760</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>28,73%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2738,32 +2738,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>51953</t>
+          <t>108876</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>46921</t>
+          <t>96224</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>57358</t>
+          <t>122737</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>33,56%</t>
         </is>
       </c>
     </row>
@@ -2781,32 +2781,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>16165</t>
+          <t>28501</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>13393</t>
+          <t>22435</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>19494</t>
+          <t>34986</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2816,32 +2816,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>6720</t>
+          <t>9703</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>4837</t>
+          <t>6556</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>9403</t>
+          <t>13883</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2851,32 +2851,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>22885</t>
+          <t>38204</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>19534</t>
+          <t>31490</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>27085</t>
+          <t>46759</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>12,78%</t>
         </is>
       </c>
     </row>
@@ -2894,17 +2894,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>86243</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>86243</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>86243</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2929,17 +2929,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>94347</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>94347</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>94347</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2964,17 +2964,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>180590</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>180590</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>180590</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3011,32 +3011,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4218</t>
+          <t>9189</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2720</t>
+          <t>5761</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>13692</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3046,32 +3046,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>24703</t>
+          <t>39923</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>21436</t>
+          <t>33399</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>28832</t>
+          <t>46570</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>39,81%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3081,32 +3081,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>28921</t>
+          <t>49111</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>25126</t>
+          <t>41692</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>33391</t>
+          <t>57970</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>24,95%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>29,46%</t>
         </is>
       </c>
     </row>
@@ -3124,32 +3124,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>14503</t>
+          <t>30468</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>11994</t>
+          <t>24911</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>17084</t>
+          <t>37223</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>39,78%</t>
+          <t>41,72%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>32,9%</t>
+          <t>34,11%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>46,86%</t>
+          <t>50,97%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3159,32 +3159,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>32521</t>
+          <t>61625</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>28511</t>
+          <t>54115</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>36023</t>
+          <t>69457</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>44,91%</t>
+          <t>49,78%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>43,72%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>49,74%</t>
+          <t>56,11%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3194,32 +3194,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>47023</t>
+          <t>92092</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>42491</t>
+          <t>82979</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>51597</t>
+          <t>101398</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>43,19%</t>
+          <t>46,79%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>39,03%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>47,39%</t>
+          <t>51,52%</t>
         </is>
       </c>
     </row>
@@ -3237,32 +3237,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>11651</t>
+          <t>22328</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>9118</t>
+          <t>17353</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>14367</t>
+          <t>28137</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>30,58%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>39,41%</t>
+          <t>38,53%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3272,32 +3272,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>11183</t>
+          <t>18559</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>8502</t>
+          <t>13892</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>13994</t>
+          <t>24452</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3307,32 +3307,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>22834</t>
+          <t>40887</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>19183</t>
+          <t>33914</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>27229</t>
+          <t>49354</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>25,08%</t>
         </is>
       </c>
     </row>
@@ -3350,32 +3350,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>6083</t>
+          <t>11041</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>4409</t>
+          <t>7450</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8404</t>
+          <t>15654</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>23,05%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3385,32 +3385,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>4012</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2411</t>
+          <t>2061</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>6317</t>
+          <t>6260</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3420,32 +3420,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>10095</t>
+          <t>14716</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>7651</t>
+          <t>10649</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>13195</t>
+          <t>20517</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>10,43%</t>
         </is>
       </c>
     </row>
@@ -3463,17 +3463,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>36455</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>36455</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>36455</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3498,17 +3498,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3533,17 +3533,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>108874</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>108874</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>108874</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3580,32 +3580,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3439</t>
+          <t>10855</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2158</t>
+          <t>6562</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4963</t>
+          <t>16186</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>33,42%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3615,32 +3615,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>30305</t>
+          <t>50917</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>26824</t>
+          <t>43535</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>33758</t>
+          <t>58624</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>49,82%</t>
+          <t>40,95%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>44,1%</t>
+          <t>35,01%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>55,5%</t>
+          <t>47,15%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3650,32 +3650,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>33745</t>
+          <t>61772</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>29513</t>
+          <t>53571</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>37398</t>
+          <t>71890</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>43,18%</t>
+          <t>35,75%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>37,76%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>47,85%</t>
+          <t>41,61%</t>
         </is>
       </c>
     </row>
@@ -3693,32 +3693,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>10057</t>
+          <t>27528</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>8356</t>
+          <t>22384</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>11789</t>
+          <t>32877</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>58,06%</t>
+          <t>56,83%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>48,24%</t>
+          <t>46,21%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>68,06%</t>
+          <t>67,87%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3728,32 +3728,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>20334</t>
+          <t>49201</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>17404</t>
+          <t>41000</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>23940</t>
+          <t>57761</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>33,43%</t>
+          <t>39,57%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>32,98%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>46,46%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3763,32 +3763,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>30391</t>
+          <t>76729</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>26469</t>
+          <t>66706</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>34266</t>
+          <t>86843</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>38,89%</t>
+          <t>44,41%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>38,61%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>43,84%</t>
+          <t>50,26%</t>
         </is>
       </c>
     </row>
@@ -3806,32 +3806,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>3686</t>
+          <t>10048</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>6580</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>5156</t>
+          <t>14509</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>29,95%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3841,32 +3841,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>6986</t>
+          <t>20266</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>5047</t>
+          <t>14336</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>9255</t>
+          <t>27477</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3876,32 +3876,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>10672</t>
+          <t>30314</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>8384</t>
+          <t>23534</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>13608</t>
+          <t>40008</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>23,16%</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -3929,12 +3929,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3954,32 +3954,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>3205</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>2191</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>5059</t>
+          <t>6638</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3989,32 +3989,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>3345</t>
+          <t>3959</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>2141</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>5292</t>
+          <t>6733</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -4032,17 +4032,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4067,17 +4067,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>60830</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>60830</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>60830</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4102,17 +4102,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4149,32 +4149,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>28648</t>
+          <t>69419</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>24705</t>
+          <t>58261</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>33429</t>
+          <t>84447</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4184,32 +4184,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>110948</t>
+          <t>196753</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>103951</t>
+          <t>180701</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>119328</t>
+          <t>213775</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>24,57%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4219,32 +4219,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>139596</t>
+          <t>266171</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>130269</t>
+          <t>246610</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>150057</t>
+          <t>286977</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>18,74%</t>
         </is>
       </c>
     </row>
@@ -4262,32 +4262,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>137781</t>
+          <t>286443</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>129693</t>
+          <t>267674</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>146080</t>
+          <t>306596</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>39,91%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>37,56%</t>
+          <t>36,64%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>42,31%</t>
+          <t>41,97%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4297,32 +4297,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>167268</t>
+          <t>352873</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>158331</t>
+          <t>334194</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>175903</t>
+          <t>373253</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>44,07%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>39,25%</t>
+          <t>41,74%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>43,61%</t>
+          <t>46,62%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4332,32 +4332,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>305049</t>
+          <t>639316</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>293492</t>
+          <t>613762</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>316128</t>
+          <t>666453</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>41,75%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>39,2%</t>
+          <t>40,08%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>42,23%</t>
+          <t>43,52%</t>
         </is>
       </c>
     </row>
@@ -4375,32 +4375,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>120585</t>
+          <t>272421</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>113150</t>
+          <t>253199</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>128582</t>
+          <t>291063</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>37,29%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>37,24%</t>
+          <t>39,84%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4410,32 +4410,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>101254</t>
+          <t>214214</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>93644</t>
+          <t>196708</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>109461</t>
+          <t>232821</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>24,57%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4445,32 +4445,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>221838</t>
+          <t>486635</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>211708</t>
+          <t>459659</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>231933</t>
+          <t>512335</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>28,28%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>33,46%</t>
         </is>
       </c>
     </row>
@@ -4488,32 +4488,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>58245</t>
+          <t>102298</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>52666</t>
+          <t>90937</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>64264</t>
+          <t>115056</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4523,32 +4523,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>23918</t>
+          <t>36789</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>19823</t>
+          <t>30450</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>28545</t>
+          <t>45278</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4558,32 +4558,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>82163</t>
+          <t>139087</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>74120</t>
+          <t>124549</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>90002</t>
+          <t>154415</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>10,08%</t>
         </is>
       </c>
     </row>
@@ -4601,17 +4601,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>345259</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>345259</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>345259</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4636,17 +4636,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>403388</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>403388</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>403388</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4671,17 +4671,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>748647</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>748647</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>748647</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4965,12 +4965,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30576</t>
+          <t>29920</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>55864</t>
+          <t>54655</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4980,12 +4980,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5000,12 +5000,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>61123</t>
+          <t>61578</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>85932</t>
+          <t>85568</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -5015,12 +5015,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5035,12 +5035,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>97318</t>
+          <t>98316</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>134235</t>
+          <t>132643</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5050,12 +5050,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>19,93%</t>
         </is>
       </c>
     </row>
@@ -5078,12 +5078,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>120759</t>
+          <t>121779</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>157910</t>
+          <t>159365</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5093,12 +5093,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>33,21%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>43,46%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5113,12 +5113,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>119159</t>
+          <t>120139</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>149241</t>
+          <t>150047</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>39,87%</t>
+          <t>40,19%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>49,93%</t>
+          <t>50,2%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>249636</t>
+          <t>250219</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>298535</t>
+          <t>299211</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5163,12 +5163,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>37,51%</t>
+          <t>37,59%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>44,85%</t>
+          <t>44,95%</t>
         </is>
       </c>
     </row>
@@ -5191,12 +5191,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>105389</t>
+          <t>104163</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>143589</t>
+          <t>143936</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5206,12 +5206,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>39,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -5226,12 +5226,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>69849</t>
+          <t>70161</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>97066</t>
+          <t>97915</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5241,12 +5241,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>32,47%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>181388</t>
+          <t>184037</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>230266</t>
+          <t>231267</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5276,12 +5276,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>27,65%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>34,75%</t>
         </is>
       </c>
     </row>
@@ -5304,12 +5304,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51349</t>
+          <t>51267</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77468</t>
+          <t>78995</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5319,12 +5319,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -5339,12 +5339,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5087</t>
+          <t>4827</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14188</t>
+          <t>13261</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5354,12 +5354,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5374,12 +5374,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>58712</t>
+          <t>59128</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>87021</t>
+          <t>88476</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -5389,12 +5389,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>13,29%</t>
         </is>
       </c>
     </row>
@@ -5534,12 +5534,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39416</t>
+          <t>40603</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>66620</t>
+          <t>68722</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -5549,12 +5549,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>42088</t>
+          <t>42791</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>63962</t>
+          <t>65413</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -5584,12 +5584,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>90127</t>
+          <t>91077</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>125620</t>
+          <t>125978</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -5619,12 +5619,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>21,62%</t>
         </is>
       </c>
     </row>
@@ -5647,12 +5647,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>136990</t>
+          <t>134283</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>175457</t>
+          <t>173262</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -5662,12 +5662,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>41,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>54,15%</t>
+          <t>53,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -5682,12 +5682,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>117963</t>
+          <t>117616</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>145600</t>
+          <t>145004</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -5697,12 +5697,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>45,59%</t>
+          <t>45,45%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>56,27%</t>
+          <t>56,04%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -5717,12 +5717,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>265274</t>
+          <t>264880</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>312262</t>
+          <t>310584</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -5732,12 +5732,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>45,45%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>53,58%</t>
+          <t>53,29%</t>
         </is>
       </c>
     </row>
@@ -5760,12 +5760,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>58927</t>
+          <t>58644</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>92738</t>
+          <t>90834</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -5775,12 +5775,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -5795,12 +5795,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>46404</t>
+          <t>45858</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>68611</t>
+          <t>69569</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5810,12 +5810,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -5830,12 +5830,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>110873</t>
+          <t>112870</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>151994</t>
+          <t>150340</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5845,12 +5845,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>25,8%</t>
         </is>
       </c>
     </row>
@@ -5873,12 +5873,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>31459</t>
+          <t>31192</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>54497</t>
+          <t>52103</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5888,12 +5888,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5908,12 +5908,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>11145</t>
+          <t>11391</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>24442</t>
+          <t>23464</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5943,12 +5943,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>45253</t>
+          <t>46073</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>72080</t>
+          <t>71771</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5958,12 +5958,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>12,31%</t>
         </is>
       </c>
     </row>
@@ -6103,12 +6103,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9144</t>
+          <t>11816</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>89720</t>
+          <t>90438</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6118,12 +6118,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6138,12 +6138,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>27408</t>
+          <t>27482</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>42369</t>
+          <t>44052</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6153,12 +6153,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>43,78%</t>
+          <t>45,52%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6173,12 +6173,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>22324</t>
+          <t>24305</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>138826</t>
+          <t>138978</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6188,12 +6188,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>24,29%</t>
         </is>
       </c>
     </row>
@@ -6216,12 +6216,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>184324</t>
+          <t>185728</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>438424</t>
+          <t>434345</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6231,12 +6231,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>39,07%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>91,36%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -6251,12 +6251,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>37507</t>
+          <t>36309</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>53132</t>
+          <t>52636</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6266,12 +6266,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>37,52%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>54,9%</t>
+          <t>54,39%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -6286,12 +6286,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>236355</t>
+          <t>236261</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>503537</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -6301,12 +6301,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>41,31%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>88,0%</t>
         </is>
       </c>
     </row>
@@ -6329,12 +6329,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15163</t>
+          <t>16442</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>119498</t>
+          <t>119934</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -6344,12 +6344,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6364,12 +6364,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>6563</t>
+          <t>7065</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>18536</t>
+          <t>18376</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6379,12 +6379,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6399,12 +6399,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>21415</t>
+          <t>23986</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>118416</t>
+          <t>118377</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
@@ -6442,12 +6442,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9593</t>
+          <t>12773</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>94313</t>
+          <t>94567</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -6457,12 +6457,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -6477,12 +6477,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3087</t>
+          <t>3153</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10479</t>
+          <t>10556</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -6492,12 +6492,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -6512,12 +6512,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>15011</t>
+          <t>16720</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>89990</t>
+          <t>89955</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -6527,12 +6527,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>15,72%</t>
         </is>
       </c>
     </row>
@@ -6672,12 +6672,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>58444</t>
+          <t>58016</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>92449</t>
+          <t>90910</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -6687,12 +6687,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -6707,12 +6707,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>55505</t>
+          <t>48586</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>202340</t>
+          <t>202646</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -6722,12 +6722,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>31,79%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -6742,12 +6742,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>115914</t>
+          <t>111539</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>259473</t>
+          <t>257184</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -6757,12 +6757,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>21,98%</t>
         </is>
       </c>
     </row>
@@ -6785,12 +6785,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>232445</t>
+          <t>228998</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>281545</t>
+          <t>281208</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6800,12 +6800,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>43,55%</t>
+          <t>42,9%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>52,75%</t>
+          <t>52,69%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6820,12 +6820,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>91043</t>
+          <t>89454</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>347874</t>
+          <t>347438</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6835,12 +6835,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>54,65%</t>
+          <t>54,58%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6855,12 +6855,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>279437</t>
+          <t>282820</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>604585</t>
+          <t>603109</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6870,12 +6870,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>51,66%</t>
+          <t>51,53%</t>
         </is>
       </c>
     </row>
@@ -6898,12 +6898,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>96868</t>
+          <t>95214</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>138232</t>
+          <t>139152</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6913,12 +6913,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6933,12 +6933,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>83780</t>
+          <t>84357</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>482153</t>
+          <t>495644</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6948,12 +6948,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>75,75%</t>
+          <t>77,87%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6968,12 +6968,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>204338</t>
+          <t>205285</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>713882</t>
+          <t>716245</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6983,12 +6983,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>61,0%</t>
+          <t>61,2%</t>
         </is>
       </c>
     </row>
@@ -7011,12 +7011,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>72247</t>
+          <t>71955</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>103469</t>
+          <t>105549</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -7026,12 +7026,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -7046,12 +7046,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2728</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>16338</t>
+          <t>16075</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -7061,12 +7061,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -7081,12 +7081,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>58093</t>
+          <t>54183</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>126402</t>
+          <t>122379</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -7096,12 +7096,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>10,46%</t>
         </is>
       </c>
     </row>
@@ -7241,12 +7241,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>22248</t>
+          <t>21449</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>41319</t>
+          <t>43075</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -7256,12 +7256,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>20,3%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -7276,12 +7276,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>60358</t>
+          <t>56733</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>124986</t>
+          <t>124167</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -7291,12 +7291,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>29,38%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -7311,12 +7311,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>89405</t>
+          <t>89127</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>152911</t>
+          <t>154110</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -7326,12 +7326,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>24,28%</t>
         </is>
       </c>
     </row>
@@ -7354,12 +7354,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>70948</t>
+          <t>70727</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>102802</t>
+          <t>103231</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7369,12 +7369,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>33,43%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>48,44%</t>
+          <t>48,64%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7389,12 +7389,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>247426</t>
+          <t>249518</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>338376</t>
+          <t>341468</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7404,12 +7404,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>58,55%</t>
+          <t>59,04%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>80,07%</t>
+          <t>80,8%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -7424,12 +7424,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>326140</t>
+          <t>327381</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>449912</t>
+          <t>454024</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -7439,12 +7439,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>51,37%</t>
+          <t>51,57%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>70,87%</t>
+          <t>71,52%</t>
         </is>
       </c>
     </row>
@@ -7467,12 +7467,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>50934</t>
+          <t>52622</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>83698</t>
+          <t>83141</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -7482,12 +7482,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>39,18%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -7502,12 +7502,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>18404</t>
+          <t>19581</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>44334</t>
+          <t>45370</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -7517,12 +7517,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -7537,12 +7537,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>68367</t>
+          <t>66415</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>124164</t>
+          <t>123130</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -7552,12 +7552,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>19,4%</t>
         </is>
       </c>
     </row>
@@ -7580,12 +7580,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>19667</t>
+          <t>18871</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>40134</t>
+          <t>39867</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -7595,12 +7595,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -7615,12 +7615,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>4062</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>14359</t>
+          <t>14485</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -7630,12 +7630,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -7650,12 +7650,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>24254</t>
+          <t>23056</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>50247</t>
+          <t>48676</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -7665,12 +7665,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,67%</t>
         </is>
       </c>
     </row>
@@ -7810,12 +7810,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>21736</t>
+          <t>22354</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>58073</t>
+          <t>58488</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7825,12 +7825,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7845,12 +7845,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>158451</t>
+          <t>156934</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>199359</t>
+          <t>197392</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7860,12 +7860,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>32,34%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>40,69%</t>
+          <t>40,29%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7880,12 +7880,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>187881</t>
+          <t>188684</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>243550</t>
+          <t>243992</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7895,12 +7895,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>28,73%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>37,15%</t>
         </is>
       </c>
     </row>
@@ -7923,12 +7923,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>67314</t>
+          <t>67225</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>110177</t>
+          <t>111593</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7938,12 +7938,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>40,37%</t>
+          <t>40,31%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>66,07%</t>
+          <t>66,92%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7958,12 +7958,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>234196</t>
+          <t>233862</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>277745</t>
+          <t>279322</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7973,12 +7973,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>47,8%</t>
+          <t>47,73%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>56,69%</t>
+          <t>57,01%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7993,12 +7993,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>314685</t>
+          <t>319688</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>376341</t>
+          <t>376714</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -8008,12 +8008,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>47,92%</t>
+          <t>48,68%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>57,31%</t>
+          <t>57,36%</t>
         </is>
       </c>
     </row>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>21121</t>
+          <t>20714</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>55596</t>
+          <t>54871</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -8051,12 +8051,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>32,9%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -8071,12 +8071,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>31091</t>
+          <t>31377</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>58479</t>
+          <t>61315</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -8086,12 +8086,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -8106,12 +8106,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>58024</t>
+          <t>59742</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>105789</t>
+          <t>102312</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -8121,12 +8121,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>15,58%</t>
         </is>
       </c>
     </row>
@@ -8154,7 +8154,7 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>8620</t>
+          <t>9778</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -8169,7 +8169,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -8184,12 +8184,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>7799</t>
+          <t>7562</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>22803</t>
+          <t>22037</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -8199,12 +8199,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -8219,12 +8219,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>9586</t>
+          <t>9418</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>25356</t>
+          <t>26292</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -8234,12 +8234,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>4,0%</t>
         </is>
       </c>
     </row>
@@ -8379,12 +8379,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>191079</t>
+          <t>174811</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>327540</t>
+          <t>327500</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -8394,12 +8394,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -8414,12 +8414,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>393544</t>
+          <t>423428</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>646205</t>
+          <t>644755</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -8429,12 +8429,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>29,33%</t>
+          <t>29,26%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -8449,12 +8449,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>697840</t>
+          <t>679271</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>959986</t>
+          <t>947956</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -8464,12 +8464,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>22,14%</t>
         </is>
       </c>
     </row>
@@ -8492,12 +8492,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>918556</t>
+          <t>920821</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>1381410</t>
+          <t>1438112</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -8507,12 +8507,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>44,29%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>66,45%</t>
+          <t>69,18%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -8527,12 +8527,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>761690</t>
+          <t>798214</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>1234078</t>
+          <t>1222968</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -8542,12 +8542,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>34,57%</t>
+          <t>36,22%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>56,0%</t>
+          <t>55,5%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -8562,12 +8562,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1878216</t>
+          <t>1859757</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>2505548</t>
+          <t>2484441</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -8577,12 +8577,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>43,86%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>58,51%</t>
+          <t>58,01%</t>
         </is>
       </c>
     </row>
@@ -8605,12 +8605,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>315377</t>
+          <t>309370</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>544391</t>
+          <t>547698</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -8620,12 +8620,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -8640,12 +8640,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>300847</t>
+          <t>304750</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>1022313</t>
+          <t>922992</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -8655,12 +8655,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>46,39%</t>
+          <t>41,89%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -8675,12 +8675,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>739735</t>
+          <t>765853</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>1452911</t>
+          <t>1552811</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -8690,12 +8690,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>33,93%</t>
+          <t>36,26%</t>
         </is>
       </c>
     </row>
@@ -8718,12 +8718,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>181269</t>
+          <t>167315</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>309016</t>
+          <t>312473</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -8733,12 +8733,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -8753,12 +8753,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>44251</t>
+          <t>44833</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>78216</t>
+          <t>77687</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -8768,12 +8768,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -8788,12 +8788,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>261178</t>
+          <t>258768</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>375567</t>
+          <t>375349</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -8803,12 +8803,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>8,76%</t>
         </is>
       </c>
     </row>
